--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Agrn-Musk.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Agrn-Musk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.389227</v>
+        <v>16.1326815</v>
       </c>
       <c r="H2">
-        <v>76.778454</v>
+        <v>32.265363</v>
       </c>
       <c r="I2">
-        <v>0.4452295445267456</v>
+        <v>0.3552239102184613</v>
       </c>
       <c r="J2">
-        <v>0.3751312191747254</v>
+        <v>0.3114989702451305</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.06343</v>
+        <v>0.2499615</v>
       </c>
       <c r="N2">
-        <v>12.19029</v>
+        <v>0.499923</v>
       </c>
       <c r="O2">
-        <v>0.2221677315717048</v>
+        <v>0.02512781093456328</v>
       </c>
       <c r="P2">
-        <v>0.2970569689564089</v>
+        <v>0.02065800593752949</v>
       </c>
       <c r="Q2">
-        <v>155.99193666861</v>
+        <v>4.03254926676225</v>
       </c>
       <c r="R2">
-        <v>935.95162001166</v>
+        <v>16.130197067049</v>
       </c>
       <c r="S2">
-        <v>0.09891563793621042</v>
+        <v>0.008925999255405777</v>
       </c>
       <c r="T2">
-        <v>0.1114353429289662</v>
+        <v>0.006434947576858229</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.389227</v>
+        <v>16.1326815</v>
       </c>
       <c r="H3">
-        <v>76.778454</v>
+        <v>32.265363</v>
       </c>
       <c r="I3">
-        <v>0.4452295445267456</v>
+        <v>0.3552239102184613</v>
       </c>
       <c r="J3">
-        <v>0.3751312191747254</v>
+        <v>0.3114989702451305</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.115697</v>
+        <v>4.06343</v>
       </c>
       <c r="N3">
-        <v>0.347091</v>
+        <v>12.19029</v>
       </c>
       <c r="O3">
-        <v>0.006325724828445804</v>
+        <v>0.4084833095730042</v>
       </c>
       <c r="P3">
-        <v>0.008458026873195707</v>
+        <v>0.5037317410885405</v>
       </c>
       <c r="Q3">
-        <v>4.441518396218999</v>
+        <v>65.55402198754501</v>
       </c>
       <c r="R3">
-        <v>26.649110377314</v>
+        <v>393.32413192527</v>
       </c>
       <c r="S3">
-        <v>0.002816399584170451</v>
+        <v>0.1451030384855008</v>
       </c>
       <c r="T3">
-        <v>0.003172869932754496</v>
+        <v>0.1569119186288671</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>38.389227</v>
+        <v>16.1326815</v>
       </c>
       <c r="H4">
-        <v>76.778454</v>
+        <v>32.265363</v>
       </c>
       <c r="I4">
-        <v>0.4452295445267456</v>
+        <v>0.3552239102184613</v>
       </c>
       <c r="J4">
-        <v>0.3751312191747254</v>
+        <v>0.3114989702451305</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>13.8328835</v>
+        <v>0.1937126666666667</v>
       </c>
       <c r="N4">
-        <v>27.665767</v>
+        <v>0.581138</v>
       </c>
       <c r="O4">
-        <v>0.7563118715692566</v>
+        <v>0.01947329994271149</v>
       </c>
       <c r="P4">
-        <v>0.6741684479101187</v>
+        <v>0.02401400266545851</v>
       </c>
       <c r="Q4">
-        <v>531.0337047460545</v>
+        <v>3.125104753849</v>
       </c>
       <c r="R4">
-        <v>2124.134818984218</v>
+        <v>18.750628523094</v>
       </c>
       <c r="S4">
-        <v>0.3367323900989506</v>
+        <v>0.006917381750506914</v>
       </c>
       <c r="T4">
-        <v>0.2529016317936552</v>
+        <v>0.007480337101754145</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,51 +729,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>38.389227</v>
+        <v>16.1326815</v>
       </c>
       <c r="H5">
-        <v>76.778454</v>
+        <v>32.265363</v>
       </c>
       <c r="I5">
-        <v>0.4452295445267456</v>
+        <v>0.3552239102184613</v>
       </c>
       <c r="J5">
-        <v>0.3751312191747254</v>
+        <v>0.3114989702451305</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2779093333333333</v>
+        <v>5.392885</v>
       </c>
       <c r="N5">
-        <v>0.833728</v>
+        <v>10.78577</v>
       </c>
       <c r="O5">
-        <v>0.01519467203059274</v>
+        <v>0.5421290665636199</v>
       </c>
       <c r="P5">
-        <v>0.02031655626027673</v>
+        <v>0.4456936382219411</v>
       </c>
       <c r="Q5">
-        <v>10.668724482752</v>
+        <v>87.0016960711275</v>
       </c>
       <c r="R5">
-        <v>64.012346896512</v>
+        <v>348.00678428451</v>
       </c>
       <c r="S5">
-        <v>0.006765116907414084</v>
+        <v>0.1925772068678135</v>
       </c>
       <c r="T5">
-        <v>0.00762137451934951</v>
+        <v>0.1388331093509404</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.154770000000001</v>
+        <v>16.1326815</v>
       </c>
       <c r="H6">
-        <v>9.464310000000001</v>
+        <v>32.265363</v>
       </c>
       <c r="I6">
-        <v>0.03658830666704076</v>
+        <v>0.3552239102184613</v>
       </c>
       <c r="J6">
-        <v>0.04624159466596638</v>
+        <v>0.3114989702451305</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>4.06343</v>
+        <v>0.04761433333333333</v>
       </c>
       <c r="N6">
-        <v>12.19029</v>
+        <v>0.142843</v>
       </c>
       <c r="O6">
-        <v>0.2221677315717048</v>
+        <v>0.004786512986100957</v>
       </c>
       <c r="P6">
-        <v>0.2970569689564089</v>
+        <v>0.005902612086530376</v>
       </c>
       <c r="Q6">
-        <v>12.8191870611</v>
+        <v>0.7681468745015</v>
       </c>
       <c r="R6">
-        <v>115.3726835499</v>
+        <v>4.608881247009</v>
       </c>
       <c r="S6">
-        <v>0.008128741094266331</v>
+        <v>0.001700283859234225</v>
       </c>
       <c r="T6">
-        <v>0.01373638795118282</v>
+        <v>0.001838657586710673</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +859,40 @@
         <v>9.464310000000001</v>
       </c>
       <c r="I7">
-        <v>0.03658830666704076</v>
+        <v>0.06946456701819194</v>
       </c>
       <c r="J7">
-        <v>0.04624159466596638</v>
+        <v>0.09137113439823044</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.115697</v>
+        <v>0.2499615</v>
       </c>
       <c r="N7">
-        <v>0.347091</v>
+        <v>0.499923</v>
       </c>
       <c r="O7">
-        <v>0.006325724828445804</v>
+        <v>0.02512781093456328</v>
       </c>
       <c r="P7">
-        <v>0.008458026873195707</v>
+        <v>0.02065800593752949</v>
       </c>
       <c r="Q7">
-        <v>0.36499742469</v>
+        <v>0.7885710413550001</v>
       </c>
       <c r="R7">
-        <v>3.28497682221</v>
+        <v>4.731426248130001</v>
       </c>
       <c r="S7">
-        <v>0.0002314475599144889</v>
+        <v>0.001745492506684427</v>
       </c>
       <c r="T7">
-        <v>0.0003911126503441669</v>
+        <v>0.00188754543691745</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>9.464310000000001</v>
       </c>
       <c r="I8">
-        <v>0.03658830666704076</v>
+        <v>0.06946456701819194</v>
       </c>
       <c r="J8">
-        <v>0.04624159466596638</v>
+        <v>0.09137113439823044</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.8328835</v>
+        <v>4.06343</v>
       </c>
       <c r="N8">
-        <v>27.665767</v>
+        <v>12.19029</v>
       </c>
       <c r="O8">
-        <v>0.7563118715692566</v>
+        <v>0.4084833095730042</v>
       </c>
       <c r="P8">
-        <v>0.6741684479101187</v>
+        <v>0.5037317410885405</v>
       </c>
       <c r="Q8">
-        <v>43.63956587929501</v>
+        <v>12.8191870611</v>
       </c>
       <c r="R8">
-        <v>261.83739527577</v>
+        <v>115.3726835499</v>
       </c>
       <c r="S8">
-        <v>0.02767217069289951</v>
+        <v>0.02837511623364679</v>
       </c>
       <c r="T8">
-        <v>0.03117462410484338</v>
+        <v>0.04602654061565565</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,45 +983,45 @@
         <v>9.464310000000001</v>
       </c>
       <c r="I9">
-        <v>0.03658830666704076</v>
+        <v>0.06946456701819194</v>
       </c>
       <c r="J9">
-        <v>0.04624159466596638</v>
+        <v>0.09137113439823044</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.2779093333333333</v>
+        <v>0.1937126666666667</v>
       </c>
       <c r="N9">
-        <v>0.833728</v>
+        <v>0.581138</v>
       </c>
       <c r="O9">
-        <v>0.01519467203059274</v>
+        <v>0.01947329994271149</v>
       </c>
       <c r="P9">
-        <v>0.02031655626027673</v>
+        <v>0.02401400266545851</v>
       </c>
       <c r="Q9">
-        <v>0.8767400275200001</v>
+        <v>0.6111189094200001</v>
       </c>
       <c r="R9">
-        <v>7.890660247680001</v>
+        <v>5.500070184780001</v>
       </c>
       <c r="S9">
-        <v>0.000555947319960434</v>
+        <v>0.001352704348935836</v>
       </c>
       <c r="T9">
-        <v>0.0009394699595960185</v>
+        <v>0.002194186664985074</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.963441333333333</v>
+        <v>3.154770000000001</v>
       </c>
       <c r="H10">
-        <v>8.890324</v>
+        <v>9.464310000000001</v>
       </c>
       <c r="I10">
-        <v>0.03436932020203824</v>
+        <v>0.06946456701819194</v>
       </c>
       <c r="J10">
-        <v>0.04343716117256439</v>
+        <v>0.09137113439823044</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.06343</v>
+        <v>5.392885</v>
       </c>
       <c r="N10">
-        <v>12.19029</v>
+        <v>10.78577</v>
       </c>
       <c r="O10">
-        <v>0.2221677315717048</v>
+        <v>0.5421290665636199</v>
       </c>
       <c r="P10">
-        <v>0.2970569689564089</v>
+        <v>0.4456936382219411</v>
       </c>
       <c r="Q10">
-        <v>12.04173641710667</v>
+        <v>17.01331181145</v>
       </c>
       <c r="R10">
-        <v>108.37562775396</v>
+        <v>102.0798708687</v>
       </c>
       <c r="S10">
-        <v>0.007635753904948403</v>
+        <v>0.03765876087681842</v>
       </c>
       <c r="T10">
-        <v>0.01290331143799299</v>
+        <v>0.04072353331841327</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.963441333333333</v>
+        <v>3.154770000000001</v>
       </c>
       <c r="H11">
-        <v>8.890324</v>
+        <v>9.464310000000001</v>
       </c>
       <c r="I11">
-        <v>0.03436932020203824</v>
+        <v>0.06946456701819194</v>
       </c>
       <c r="J11">
-        <v>0.04343716117256439</v>
+        <v>0.09137113439823044</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.115697</v>
+        <v>0.04761433333333333</v>
       </c>
       <c r="N11">
-        <v>0.347091</v>
+        <v>0.142843</v>
       </c>
       <c r="O11">
-        <v>0.006325724828445804</v>
+        <v>0.004786512986100957</v>
       </c>
       <c r="P11">
-        <v>0.008458026873195707</v>
+        <v>0.005902612086530376</v>
       </c>
       <c r="Q11">
-        <v>0.3428612719426666</v>
+        <v>0.15021227037</v>
       </c>
       <c r="R11">
-        <v>3.085751447484</v>
+        <v>1.35191043333</v>
       </c>
       <c r="S11">
-        <v>0.0002174108621388372</v>
+        <v>0.0003324930521064559</v>
       </c>
       <c r="T11">
-        <v>0.0003673926764928827</v>
+        <v>0.0005393283622589864</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.963441333333333</v>
+        <v>3.114747</v>
       </c>
       <c r="H12">
-        <v>8.890324</v>
+        <v>9.344241</v>
       </c>
       <c r="I12">
-        <v>0.03436932020203824</v>
+        <v>0.06858330455982917</v>
       </c>
       <c r="J12">
-        <v>0.04343716117256439</v>
+        <v>0.09021195420061844</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.8328835</v>
+        <v>0.2499615</v>
       </c>
       <c r="N12">
-        <v>27.665767</v>
+        <v>0.499923</v>
       </c>
       <c r="O12">
-        <v>0.7563118715692566</v>
+        <v>0.02512781093456328</v>
       </c>
       <c r="P12">
-        <v>0.6741684479101187</v>
+        <v>0.02065800593752949</v>
       </c>
       <c r="Q12">
-        <v>40.99293872308466</v>
+        <v>0.7785668322404999</v>
       </c>
       <c r="R12">
-        <v>245.957632338508</v>
+        <v>4.671400993443</v>
       </c>
       <c r="S12">
-        <v>0.0259939248865666</v>
+        <v>0.001723348310246959</v>
       </c>
       <c r="T12">
-        <v>0.0292839635293294</v>
+        <v>0.001863599085512514</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,51 +1225,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.963441333333333</v>
+        <v>3.114747</v>
       </c>
       <c r="H13">
-        <v>8.890324</v>
+        <v>9.344241</v>
       </c>
       <c r="I13">
-        <v>0.03436932020203824</v>
+        <v>0.06858330455982917</v>
       </c>
       <c r="J13">
-        <v>0.04343716117256439</v>
+        <v>0.09021195420061844</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2779093333333333</v>
+        <v>4.06343</v>
       </c>
       <c r="N13">
-        <v>0.833728</v>
+        <v>12.19029</v>
       </c>
       <c r="O13">
-        <v>0.01519467203059274</v>
+        <v>0.4084833095730042</v>
       </c>
       <c r="P13">
-        <v>0.02031655626027673</v>
+        <v>0.5037317410885405</v>
       </c>
       <c r="Q13">
-        <v>0.8235680053191111</v>
+        <v>12.65655640221</v>
       </c>
       <c r="R13">
-        <v>7.412112047872</v>
+        <v>113.90900761989</v>
       </c>
       <c r="S13">
-        <v>0.0005222305483843962</v>
+        <v>0.02801513522805233</v>
       </c>
       <c r="T13">
-        <v>0.0008824935287491125</v>
+        <v>0.04544262475647719</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,122 +1278,122 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>15.6101945</v>
+        <v>3.114747</v>
       </c>
       <c r="H14">
-        <v>31.220389</v>
+        <v>9.344241</v>
       </c>
       <c r="I14">
-        <v>0.1810434939783734</v>
+        <v>0.06858330455982917</v>
       </c>
       <c r="J14">
-        <v>0.1525394427540725</v>
+        <v>0.09021195420061844</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>4.06343</v>
+        <v>0.1937126666666667</v>
       </c>
       <c r="N14">
-        <v>12.19029</v>
+        <v>0.581138</v>
       </c>
       <c r="O14">
-        <v>0.2221677315717048</v>
+        <v>0.01947329994271149</v>
       </c>
       <c r="P14">
-        <v>0.2970569689564089</v>
+        <v>0.02401400266545851</v>
       </c>
       <c r="Q14">
-        <v>63.43093263713502</v>
+        <v>0.603365947362</v>
       </c>
       <c r="R14">
-        <v>380.5855958228101</v>
+        <v>5.430293526258001</v>
       </c>
       <c r="S14">
-        <v>0.04022202237299082</v>
+        <v>0.001335543260755886</v>
       </c>
       <c r="T14">
-        <v>0.04531290451082441</v>
+        <v>0.002166350108629872</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>15.6101945</v>
+        <v>3.114747</v>
       </c>
       <c r="H15">
-        <v>31.220389</v>
+        <v>9.344241</v>
       </c>
       <c r="I15">
-        <v>0.1810434939783734</v>
+        <v>0.06858330455982917</v>
       </c>
       <c r="J15">
-        <v>0.1525394427540725</v>
+        <v>0.09021195420061844</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.115697</v>
+        <v>5.392885</v>
       </c>
       <c r="N15">
-        <v>0.347091</v>
+        <v>10.78577</v>
       </c>
       <c r="O15">
-        <v>0.006325724828445804</v>
+        <v>0.5421290665636199</v>
       </c>
       <c r="P15">
-        <v>0.008458026873195707</v>
+        <v>0.4456936382219411</v>
       </c>
       <c r="Q15">
-        <v>1.8060526730665</v>
+        <v>16.797472375095</v>
       </c>
       <c r="R15">
-        <v>10.836316038399</v>
+        <v>100.78483425057</v>
       </c>
       <c r="S15">
-        <v>0.001145231324887575</v>
+        <v>0.03718100288286864</v>
       </c>
       <c r="T15">
-        <v>0.001290182706036243</v>
+        <v>0.04020689407878475</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,55 +1402,55 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>15.6101945</v>
+        <v>3.114747</v>
       </c>
       <c r="H16">
-        <v>31.220389</v>
+        <v>9.344241</v>
       </c>
       <c r="I16">
-        <v>0.1810434939783734</v>
+        <v>0.06858330455982917</v>
       </c>
       <c r="J16">
-        <v>0.1525394427540725</v>
+        <v>0.09021195420061844</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>13.8328835</v>
+        <v>0.04761433333333333</v>
       </c>
       <c r="N16">
-        <v>27.665767</v>
+        <v>0.142843</v>
       </c>
       <c r="O16">
-        <v>0.7563118715692566</v>
+        <v>0.004786512986100957</v>
       </c>
       <c r="P16">
-        <v>0.6741684479101187</v>
+        <v>0.005902612086530376</v>
       </c>
       <c r="Q16">
-        <v>215.9340019308408</v>
+        <v>0.148306601907</v>
       </c>
       <c r="R16">
-        <v>863.7360077233631</v>
+        <v>1.334759417163</v>
       </c>
       <c r="S16">
-        <v>0.136925343766221</v>
+        <v>0.0003282748779053393</v>
       </c>
       <c r="T16">
-        <v>0.1028372793665874</v>
+        <v>0.0005324861712140952</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.6101945</v>
+        <v>16.532941</v>
       </c>
       <c r="H17">
-        <v>31.220389</v>
+        <v>33.065882</v>
       </c>
       <c r="I17">
-        <v>0.1810434939783734</v>
+        <v>0.3640371843596564</v>
       </c>
       <c r="J17">
-        <v>0.1525394427540725</v>
+        <v>0.3192274078319527</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2779093333333333</v>
+        <v>0.2499615</v>
       </c>
       <c r="N17">
-        <v>0.833728</v>
+        <v>0.499923</v>
       </c>
       <c r="O17">
-        <v>0.01519467203059274</v>
+        <v>0.02512781093456328</v>
       </c>
       <c r="P17">
-        <v>0.02031655626027673</v>
+        <v>0.02065800593752949</v>
       </c>
       <c r="Q17">
-        <v>4.338218746698668</v>
+        <v>4.1325987317715</v>
       </c>
       <c r="R17">
-        <v>26.029312480192</v>
+        <v>16.530394927086</v>
       </c>
       <c r="S17">
-        <v>0.002750896514273975</v>
+        <v>0.009147457541740203</v>
       </c>
       <c r="T17">
-        <v>0.003099076170624375</v>
+        <v>0.006594601686414629</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1529,22 +1529,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>18.952291</v>
+        <v>16.532941</v>
       </c>
       <c r="H18">
-        <v>56.85687299999999</v>
+        <v>33.065882</v>
       </c>
       <c r="I18">
-        <v>0.2198043708894774</v>
+        <v>0.3640371843596564</v>
       </c>
       <c r="J18">
-        <v>0.2777965298305241</v>
+        <v>0.3192274078319527</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,27 +1559,27 @@
         <v>12.19029</v>
       </c>
       <c r="O18">
-        <v>0.2221677315717048</v>
+        <v>0.4084833095730042</v>
       </c>
       <c r="P18">
-        <v>0.2970569689564089</v>
+        <v>0.5037317410885405</v>
       </c>
       <c r="Q18">
-        <v>77.01130781813001</v>
+        <v>67.18044844763001</v>
       </c>
       <c r="R18">
-        <v>693.10177036317</v>
+        <v>403.0826906857801</v>
       </c>
       <c r="S18">
-        <v>0.04883343847006086</v>
+        <v>0.1487031138748703</v>
       </c>
       <c r="T18">
-        <v>0.08252139513806411</v>
+        <v>0.1608049779503711</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1591,57 +1591,57 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>18.952291</v>
+        <v>16.532941</v>
       </c>
       <c r="H19">
-        <v>56.85687299999999</v>
+        <v>33.065882</v>
       </c>
       <c r="I19">
-        <v>0.2198043708894774</v>
+        <v>0.3640371843596564</v>
       </c>
       <c r="J19">
-        <v>0.2777965298305241</v>
+        <v>0.3192274078319527</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.115697</v>
+        <v>0.1937126666666667</v>
       </c>
       <c r="N19">
-        <v>0.347091</v>
+        <v>0.581138</v>
       </c>
       <c r="O19">
-        <v>0.006325724828445804</v>
+        <v>0.01947329994271149</v>
       </c>
       <c r="P19">
-        <v>0.008458026873195707</v>
+        <v>0.02401400266545851</v>
       </c>
       <c r="Q19">
-        <v>2.192723211827</v>
+        <v>3.202640088952667</v>
       </c>
       <c r="R19">
-        <v>19.734508906443</v>
+        <v>19.215840533716</v>
       </c>
       <c r="S19">
-        <v>0.001390421966336477</v>
+        <v>0.00708900528133575</v>
       </c>
       <c r="T19">
-        <v>0.002349610514587086</v>
+        <v>0.007665927822563924</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1653,22 +1653,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>18.952291</v>
+        <v>16.532941</v>
       </c>
       <c r="H20">
-        <v>56.85687299999999</v>
+        <v>33.065882</v>
       </c>
       <c r="I20">
-        <v>0.2198043708894774</v>
+        <v>0.3640371843596564</v>
       </c>
       <c r="J20">
-        <v>0.2777965298305241</v>
+        <v>0.3192274078319527</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,33 +1677,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.8328835</v>
+        <v>5.392885</v>
       </c>
       <c r="N20">
-        <v>27.665767</v>
+        <v>10.78577</v>
       </c>
       <c r="O20">
-        <v>0.7563118715692566</v>
+        <v>0.5421290665636199</v>
       </c>
       <c r="P20">
-        <v>0.6741684479101187</v>
+        <v>0.4456936382219411</v>
       </c>
       <c r="Q20">
-        <v>262.1648334610985</v>
+        <v>89.160249524785</v>
       </c>
       <c r="R20">
-        <v>1572.989000766591</v>
+        <v>356.64099809914</v>
       </c>
       <c r="S20">
-        <v>0.1662406551265237</v>
+        <v>0.1973551389513489</v>
       </c>
       <c r="T20">
-        <v>0.1872816553506614</v>
+        <v>0.1422776248167824</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1715,22 +1715,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>18.952291</v>
+        <v>16.532941</v>
       </c>
       <c r="H21">
-        <v>56.85687299999999</v>
+        <v>33.065882</v>
       </c>
       <c r="I21">
-        <v>0.2198043708894774</v>
+        <v>0.3640371843596564</v>
       </c>
       <c r="J21">
-        <v>0.2777965298305241</v>
+        <v>0.3192274078319527</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1739,33 +1739,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.2779093333333333</v>
+        <v>0.04761433333333333</v>
       </c>
       <c r="N21">
-        <v>0.833728</v>
+        <v>0.142843</v>
       </c>
       <c r="O21">
-        <v>0.01519467203059274</v>
+        <v>0.004786512986100957</v>
       </c>
       <c r="P21">
-        <v>0.02031655626027673</v>
+        <v>0.005902612086530376</v>
       </c>
       <c r="Q21">
-        <v>5.267018556949333</v>
+        <v>0.7872049637543334</v>
       </c>
       <c r="R21">
-        <v>47.403167012544</v>
+        <v>4.723229782526</v>
       </c>
       <c r="S21">
-        <v>0.003339855326556374</v>
+        <v>0.001742468710361123</v>
       </c>
       <c r="T21">
-        <v>0.005643868827211487</v>
+        <v>0.001884275555820646</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>7.153525333333334</v>
+        <v>5.297244</v>
       </c>
       <c r="H22">
-        <v>21.460576</v>
+        <v>15.891732</v>
       </c>
       <c r="I22">
-        <v>0.08296496373632467</v>
+        <v>0.116639489043485</v>
       </c>
       <c r="J22">
-        <v>0.1048540524021472</v>
+        <v>0.1534232902760644</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.06343</v>
+        <v>0.2499615</v>
       </c>
       <c r="N22">
-        <v>12.19029</v>
+        <v>0.499923</v>
       </c>
       <c r="O22">
-        <v>0.2221677315717048</v>
+        <v>0.02512781093456328</v>
       </c>
       <c r="P22">
-        <v>0.2970569689564089</v>
+        <v>0.02065800593752949</v>
       </c>
       <c r="Q22">
-        <v>29.06784944522667</v>
+        <v>1.324107056106</v>
       </c>
       <c r="R22">
-        <v>261.61064500704</v>
+        <v>7.944642336636001</v>
       </c>
       <c r="S22">
-        <v>0.01843213779322801</v>
+        <v>0.002930895028188756</v>
       </c>
       <c r="T22">
-        <v>0.03114762698937832</v>
+        <v>0.00316941924147825</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,51 +1845,51 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>7.153525333333334</v>
+        <v>5.297244</v>
       </c>
       <c r="H23">
-        <v>21.460576</v>
+        <v>15.891732</v>
       </c>
       <c r="I23">
-        <v>0.08296496373632467</v>
+        <v>0.116639489043485</v>
       </c>
       <c r="J23">
-        <v>0.1048540524021472</v>
+        <v>0.1534232902760644</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0.115697</v>
+        <v>4.06343</v>
       </c>
       <c r="N23">
-        <v>0.347091</v>
+        <v>12.19029</v>
       </c>
       <c r="O23">
-        <v>0.006325724828445804</v>
+        <v>0.4084833095730042</v>
       </c>
       <c r="P23">
-        <v>0.008458026873195707</v>
+        <v>0.5037317410885405</v>
       </c>
       <c r="Q23">
-        <v>0.8276414204906667</v>
+        <v>21.52498018692</v>
       </c>
       <c r="R23">
-        <v>7.448772784416</v>
+        <v>193.72482168228</v>
       </c>
       <c r="S23">
-        <v>0.0005248135309979747</v>
+        <v>0.0476452845113869</v>
       </c>
       <c r="T23">
-        <v>0.0008868583929808323</v>
+        <v>0.07728418113429449</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,108 +1907,480 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>7.153525333333334</v>
+        <v>5.297244</v>
       </c>
       <c r="H24">
-        <v>21.460576</v>
+        <v>15.891732</v>
       </c>
       <c r="I24">
-        <v>0.08296496373632467</v>
+        <v>0.116639489043485</v>
       </c>
       <c r="J24">
-        <v>0.1048540524021472</v>
+        <v>0.1534232902760644</v>
       </c>
       <c r="K24">
         <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>13.8328835</v>
+        <v>0.1937126666666667</v>
       </c>
       <c r="N24">
-        <v>27.665767</v>
+        <v>0.581138</v>
       </c>
       <c r="O24">
-        <v>0.7563118715692566</v>
+        <v>0.01947329994271149</v>
       </c>
       <c r="P24">
-        <v>0.6741684479101187</v>
+        <v>0.02401400266545851</v>
       </c>
       <c r="Q24">
-        <v>98.95388255029866</v>
+        <v>1.026143261224</v>
       </c>
       <c r="R24">
-        <v>593.7232953017919</v>
+        <v>9.235289351016002</v>
       </c>
       <c r="S24">
-        <v>0.06274738699809522</v>
+        <v>0.002271355755308394</v>
       </c>
       <c r="T24">
-        <v>0.07068929376504185</v>
+        <v>0.003684307301632826</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>5.297244</v>
+      </c>
+      <c r="H25">
+        <v>15.891732</v>
+      </c>
+      <c r="I25">
+        <v>0.116639489043485</v>
+      </c>
+      <c r="J25">
+        <v>0.1534232902760644</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>5.392885</v>
+      </c>
+      <c r="N25">
+        <v>10.78577</v>
+      </c>
+      <c r="O25">
+        <v>0.5421290665636199</v>
+      </c>
+      <c r="P25">
+        <v>0.4456936382219411</v>
+      </c>
+      <c r="Q25">
+        <v>28.56742770894</v>
+      </c>
+      <c r="R25">
+        <v>171.40456625364</v>
+      </c>
+      <c r="S25">
+        <v>0.06323365731960208</v>
+      </c>
+      <c r="T25">
+        <v>0.06837978443112011</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>5.297244</v>
+      </c>
+      <c r="H26">
+        <v>15.891732</v>
+      </c>
+      <c r="I26">
+        <v>0.116639489043485</v>
+      </c>
+      <c r="J26">
+        <v>0.1534232902760644</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.04761433333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.142843</v>
+      </c>
+      <c r="O26">
+        <v>0.004786512986100957</v>
+      </c>
+      <c r="P26">
+        <v>0.005902612086530376</v>
+      </c>
+      <c r="Q26">
+        <v>0.252224741564</v>
+      </c>
+      <c r="R26">
+        <v>2.270022674076</v>
+      </c>
+      <c r="S26">
+        <v>0.0005582964289988211</v>
+      </c>
+      <c r="T26">
+        <v>0.0009055981675387563</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.183144666666667</v>
+      </c>
+      <c r="H27">
+        <v>3.549434</v>
+      </c>
+      <c r="I27">
+        <v>0.02605154480037626</v>
+      </c>
+      <c r="J27">
+        <v>0.03426724304800335</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.2499615</v>
+      </c>
+      <c r="N27">
+        <v>0.499923</v>
+      </c>
+      <c r="O27">
+        <v>0.02512781093456328</v>
+      </c>
+      <c r="P27">
+        <v>0.02065800593752949</v>
+      </c>
+      <c r="Q27">
+        <v>0.295740615597</v>
+      </c>
+      <c r="R27">
+        <v>1.774443693582</v>
+      </c>
+      <c r="S27">
+        <v>0.0006546182922971598</v>
+      </c>
+      <c r="T27">
+        <v>0.0007078929103484195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.183144666666667</v>
+      </c>
+      <c r="H28">
+        <v>3.549434</v>
+      </c>
+      <c r="I28">
+        <v>0.02605154480037626</v>
+      </c>
+      <c r="J28">
+        <v>0.03426724304800335</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>4.06343</v>
+      </c>
+      <c r="N28">
+        <v>12.19029</v>
+      </c>
+      <c r="O28">
+        <v>0.4084833095730042</v>
+      </c>
+      <c r="P28">
+        <v>0.5037317410885405</v>
+      </c>
+      <c r="Q28">
+        <v>4.807625532873334</v>
+      </c>
+      <c r="R28">
+        <v>43.26862979586001</v>
+      </c>
+      <c r="S28">
+        <v>0.01064162123954708</v>
+      </c>
+      <c r="T28">
+        <v>0.01726149800287491</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.183144666666667</v>
+      </c>
+      <c r="H29">
+        <v>3.549434</v>
+      </c>
+      <c r="I29">
+        <v>0.02605154480037626</v>
+      </c>
+      <c r="J29">
+        <v>0.03426724304800335</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.1937126666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.581138</v>
+      </c>
+      <c r="O29">
+        <v>0.01947329994271149</v>
+      </c>
+      <c r="P29">
+        <v>0.02401400266545851</v>
+      </c>
+      <c r="Q29">
+        <v>0.2291901084324445</v>
+      </c>
+      <c r="R29">
+        <v>2.062710975892</v>
+      </c>
+      <c r="S29">
+        <v>0.0005073095458687129</v>
+      </c>
+      <c r="T29">
+        <v>0.0008228936658926672</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.183144666666667</v>
+      </c>
+      <c r="H30">
+        <v>3.549434</v>
+      </c>
+      <c r="I30">
+        <v>0.02605154480037626</v>
+      </c>
+      <c r="J30">
+        <v>0.03426724304800335</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>5.392885</v>
+      </c>
+      <c r="N30">
+        <v>10.78577</v>
+      </c>
+      <c r="O30">
+        <v>0.5421290665636199</v>
+      </c>
+      <c r="P30">
+        <v>0.4456936382219411</v>
+      </c>
+      <c r="Q30">
+        <v>6.380563125696667</v>
+      </c>
+      <c r="R30">
+        <v>38.28337875418</v>
+      </c>
+      <c r="S30">
+        <v>0.01412329966516831</v>
+      </c>
+      <c r="T30">
+        <v>0.01527269222590013</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>24</v>
       </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>7.153525333333334</v>
-      </c>
-      <c r="H25">
-        <v>21.460576</v>
-      </c>
-      <c r="I25">
-        <v>0.08296496373632467</v>
-      </c>
-      <c r="J25">
-        <v>0.1048540524021472</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.183144666666667</v>
+      </c>
+      <c r="H31">
+        <v>3.549434</v>
+      </c>
+      <c r="I31">
+        <v>0.02605154480037626</v>
+      </c>
+      <c r="J31">
+        <v>0.03426724304800335</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M25">
-        <v>0.2779093333333333</v>
-      </c>
-      <c r="N25">
-        <v>0.833728</v>
-      </c>
-      <c r="O25">
-        <v>0.01519467203059274</v>
-      </c>
-      <c r="P25">
-        <v>0.02031655626027673</v>
-      </c>
-      <c r="Q25">
-        <v>1.988031456369778</v>
-      </c>
-      <c r="R25">
-        <v>17.892283107328</v>
-      </c>
-      <c r="S25">
-        <v>0.001260625414003473</v>
-      </c>
-      <c r="T25">
-        <v>0.002130273254746229</v>
+      <c r="M31">
+        <v>0.04761433333333333</v>
+      </c>
+      <c r="N31">
+        <v>0.142843</v>
+      </c>
+      <c r="O31">
+        <v>0.004786512986100957</v>
+      </c>
+      <c r="P31">
+        <v>0.005902612086530376</v>
+      </c>
+      <c r="Q31">
+        <v>0.05633464454022222</v>
+      </c>
+      <c r="R31">
+        <v>0.507011800862</v>
+      </c>
+      <c r="S31">
+        <v>0.0001246960574949918</v>
+      </c>
+      <c r="T31">
+        <v>0.0002022662429872186</v>
       </c>
     </row>
   </sheetData>
